--- a/biology/Botanique/Asparagus_fallax/Asparagus_fallax.xlsx
+++ b/biology/Botanique/Asparagus_fallax/Asparagus_fallax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asparagus fallax est une espèce de plantes à fleurs appartenant à la famille des Asparagaceae, endémique du nord de l'île de Ténériffe (îles Canaries) dans la vallée de Tagananae entre 400 et 700 m d'altitude.
 </t>
@@ -513,13 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tiges
-Les arbustes peuvent atteindre 2 m de haut. Les tiges et les branches présentent des nervures longitudinales.
-Feuilles
-Asparagus fallax est partiellement épineuse avec des feuilles linéaires.
+          <t>Tiges</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbustes peuvent atteindre 2 m de haut. Les tiges et les branches présentent des nervures longitudinales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asparagus fallax est partiellement épineuse avec des feuilles linéaires.
 Les cladodes de 15 à 25 mm sont canaliculés et forment 2 à 15 nœuds avec des fleurs.
-Fleurs
-Le périgone est campaniforme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le périgone est campaniforme.
 Les tépales ont une taille de 3-4 x 1,5-2 mm, oblongs et obtus.
 Les anthères d'environ 1 mm, correspondent approximativement la moitié de la longueur du filament, jaunes.
 Les baies de 5-6 x 6-8 mm sont apiculées, orange, avec 1-2 graines.
@@ -527,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Asparagus_fallax</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asparagus_fallax</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été trouvée par Webb et Berthelot (1842) mais elle a été confondue avec l’Asparagus umbellatus qui est beaucoup plus grande, pouvant atteindre 5 m d'envergure. 
 fallax : provient du latin fallere, signifie "tromper", probablement pour avoir été confondue pendant longtemps avec d'autres espèces.
@@ -559,71 +648,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Asparagus_fallax</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asparagus_fallax</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distribution
-Cette espèce est endémique exclusivement de l'île de Tenerife dans sa région nord-orientale avec un relief très accidenté. Elle se développe dans des altitudes comprises entre 660 et 800 m.
-Habitat
-On la retrouve dans les zones de forêts à laurier.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Asparagus_fallax</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asparagus_fallax</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Intérêt ornemental par son aspect et ses fleurs odorantes.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -645,10 +669,119 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique exclusivement de l'île de Tenerife dans sa région nord-orientale avec un relief très accidenté. Elle se développe dans des altitudes comprises entre 660 et 800 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la retrouve dans les zones de forêts à laurier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Intérêt ornemental par son aspect et ses fleurs odorantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asparagus_fallax</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Protection et menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est partiellement protégée car la zone de la péninsule d'Anaga a été déclarée "parque rural". Mais la proximité des chemins de randonnées relativement fréquentés affecte sa conservation.
 Il n'y a pas de moyens concrets  "in-situ" pour sa protection. L'espèce est en danger sur la liste rouge de l'UICN. Elle est cultivée au Jardín de Aclimatación de La Orotava ainsi que dans les serres tropicales n°2 correspondant au climat îles océaniques subtropicales du Conservatoire Botanique National de Brest et est présente dans moins de 6 jardins.
